--- a/DB環境構築/DB環境構築手順.xlsx
+++ b/DB環境構築/DB環境構築手順.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace-java-demo\spring-boot-cdc-api\DB環境構築\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943CE7A6-586D-4EE4-998C-684074303985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B158AA6-92AB-4AED-929E-303E418F3B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="150" windowWidth="21720" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="255" windowWidth="22110" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1 PostgreSQL" sheetId="1" r:id="rId1"/>
-    <sheet name="原紙" sheetId="2" r:id="rId2"/>
+    <sheet name="Oracle" sheetId="4" r:id="rId1"/>
+    <sheet name="PostgreSQL" sheetId="1" r:id="rId2"/>
+    <sheet name="MySQL" sheetId="3" r:id="rId3"/>
+    <sheet name="原紙" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -26,11 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
-  <si>
-    <t>1 PostgreSQL</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
   <si>
     <t>環境：</t>
     <rPh sb="0" eb="2">
@@ -344,12 +342,276 @@
     <t>$ export PATH=/usr/pgsql-12/bin:$PATH &amp;&amp; make &amp;&amp; make install</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PostgreSQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Oracle 19c Database</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle 19c DBをインストール：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考資料：</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/jizo/items/9535fc26b2a6437d1263</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ curl -o oracle-database-preinstall-19c-1.0-2.el8.x86_64.rpm https://yum.oracle.com/repo/OracleLinux/OL8/appstream/x86_64/getPackage/oracle-database-preinstall-19c-1.0-2.el8.x86_64.rpm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ mkdir /tmp/oracle &amp;&amp; cd /tmp/oracle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle 19c DBをダウンロード：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.oracle.com/database/technologies/oracle-database-software-downloads.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WinSCPツールでダウンロードできた「」ファイルを[/tmp/oracle]フォルダーへ移動する　※[/tmp/oracle]フォルダーを事前作成してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ dnf -y localinstall oracle-database-preinstall-19c-1.0-2.el8.x86_64.rpm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ dnf -y localinstall oracle-database-ee-19c-1.0-1.x86_64.rpm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報確認</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[oracledb_ORCLCDB-19c]を編集</t>
+    <rPh sb="23" eb="25">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービス構成スクリプトを実行</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle 19c DBの作成および構成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ vim /home/oracle/.bash_profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ cat /home/oracle/.bash_profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加後、下記のコマンドで環境変数を有効化する</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ source /home/oracle/.bash_profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[/home/oracle/.bash_profile]に環境変数を追加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ firewall-cmd --permanent --zone=public --add-port=1521/tcp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>export ORACLE_BASE=/opt/oracle
+export ORACLE_HOME=$ORACLE_BASE/product/19c/dbhome_1
+export ORACLE_SID=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CDCAPIDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+export PATH=$PATH:$HOME/.local/bin:$HOME/bin:$ORACLE_HOME/bin
+export LD_LIBRARY_PATH=$ORACLE_HOME/lib:/usr/lib
+export NLS_LANG=JAPANESE_JAPAN.AL32UTF8</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ cp /etc/sysconfig/oracledb_ORCLCDB-19c.conf /etc/sysconfig/oracledb_CDCAPIDB-19c.conf</t>
+  </si>
+  <si>
+    <t>$ cat /etc/init.d/oracledb_CDCAPIDB-19c</t>
+  </si>
+  <si>
+    <t>$ cp /etc/init.d/oracledb_ORCLCDB-19c /etc/init.d/oracledb_CDCAPIDB-19c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ vim /etc/init.d/oracledb_CDCAPIDB-19c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ /etc/init.d/oracledb_CDCAPIDB-19c configure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ vim /etc/sysconfig/oracledb_CDCAPIDB-19c.conf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ su - oracle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ sqlplus / as sysdba</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[oracle]ユーザーに切替する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表領域とユーザーを作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL&gt; CREATE USER cdc_api_user IDENTIFIED BY cdc_api_pass DEFAULT TABLESPACE cdc_api_db TEMPORARY TABLESPACE TEMP PROFILE DEFAULT;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL&gt; CREATE TABLESPACE cdc_api_db DATAFILE '/mnt/second_disk/opt/oracle/oradata/CDCAPIDB/cdc_api_db.dbf' SIZE 100M REUSE AUTOEXTEND ON MINIMUM EXTENT 1M DEFAULT STORAGE ( INITIAL 1M NEXT 1M MINEXTENTS 1 MAXEXTENTS 4096 PCTINCREASE 0) ;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL&gt; GRANT connect, resource, dba to cdc_api_user;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL&gt; ALTER DATABASE ARCHIVELOG;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースをARCHIVELOGに変更</t>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL&gt; SELECT status FROM v$instance;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※データベースの状態を確認　「OPEN」であれば、以下SQLを実行</t>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHUTDOWN IMMEDIATE;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STARTUP MOUNT;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL&gt; ALTER DATABASE OPEN;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL&gt; ALTER DATABASE ADD SUPPLEMENTAL LOG DATA;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースをSUPPLEMENTAL LOG DATAに変更</t>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +653,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -427,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -436,6 +706,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -451,6 +734,561 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>18402</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>173890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FF2C67-1ED5-19AA-F2D9-62A3CB0B2939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="8852647"/>
+          <a:ext cx="3391373" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>159147</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0481B7E7-5B28-D125-C80C-94D03FE3672F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1355912" y="6073588"/>
+          <a:ext cx="4182059" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0360106E-6065-4588-977B-2A44EA0153B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322294" y="9043147"/>
+          <a:ext cx="2241176" cy="145676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1240E684-5DCF-4913-9B6E-2ECC66B3D1F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333499" y="10970560"/>
+          <a:ext cx="2106707" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12367</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>98311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EE1144-FC91-4D6A-82B7-BFCEB860AD3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="802902" y="37438293"/>
+          <a:ext cx="4200565" cy="1893493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF26DAB2-B572-400D-87EB-411C235E7AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1053353" y="16304559"/>
+          <a:ext cx="4314266" cy="1456765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274281</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D678CDB-648C-486C-9339-D711A60C9ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367118" y="6241677"/>
+          <a:ext cx="1932751" cy="224118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>224116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08C0650-2F86-4879-A114-84AC40445FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367119" y="6745940"/>
+          <a:ext cx="3978087" cy="224120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CDFD69-433C-47F0-8950-1A34688F30CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4123766" y="5916708"/>
+          <a:ext cx="2285999" cy="605116"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -86457"/>
+            <a:gd name="adj2" fmla="val 25566"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>port</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>1521</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500">
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,11 +1553,2268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7906FF0C-2F9D-4CAE-9C9F-232654171886}">
+  <dimension ref="B2:AL109"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S107" sqref="S107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="4.375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="18.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.75" thickTop="1"/>
+    <row r="4" spans="2:11">
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="D9" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="C11" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="D12" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="D13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="D16" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37">
+      <c r="D17" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37">
+      <c r="D18" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="3:37">
+      <c r="D19" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="3:37">
+      <c r="C21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+    </row>
+    <row r="22" spans="3:37">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+    </row>
+    <row r="23" spans="3:37">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+    </row>
+    <row r="24" spans="3:37">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+    </row>
+    <row r="25" spans="3:37">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+    </row>
+    <row r="26" spans="3:37">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+    </row>
+    <row r="27" spans="3:37">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+    </row>
+    <row r="28" spans="3:37">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+    </row>
+    <row r="29" spans="3:37">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+    </row>
+    <row r="30" spans="3:37">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+    </row>
+    <row r="31" spans="3:37">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+    </row>
+    <row r="32" spans="3:37">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+    </row>
+    <row r="33" spans="3:37">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+    </row>
+    <row r="34" spans="3:37">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+    </row>
+    <row r="35" spans="3:37">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+    </row>
+    <row r="36" spans="3:37">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+    </row>
+    <row r="37" spans="3:37">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+    </row>
+    <row r="38" spans="3:37">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+    </row>
+    <row r="39" spans="3:37">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+    </row>
+    <row r="40" spans="3:37">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+    </row>
+    <row r="41" spans="3:37">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+    </row>
+    <row r="42" spans="3:37">
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+    </row>
+    <row r="43" spans="3:37">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+    </row>
+    <row r="44" spans="3:37">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+    </row>
+    <row r="45" spans="3:37">
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+    </row>
+    <row r="46" spans="3:37">
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+    </row>
+    <row r="47" spans="3:37">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+    </row>
+    <row r="48" spans="3:37">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+    </row>
+    <row r="49" spans="3:38">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+    </row>
+    <row r="50" spans="3:38">
+      <c r="C50" s="10"/>
+      <c r="D50" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+    </row>
+    <row r="51" spans="3:38">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+    </row>
+    <row r="52" spans="3:38">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+    </row>
+    <row r="54" spans="3:38" s="10" customFormat="1">
+      <c r="C54" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="3:38" s="10" customFormat="1"/>
+    <row r="56" spans="3:38" s="10" customFormat="1">
+      <c r="D56" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="3:38" s="10" customFormat="1"/>
+    <row r="58" spans="3:38" s="10" customFormat="1">
+      <c r="D58" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+    </row>
+    <row r="59" spans="3:38" s="10" customFormat="1">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+    </row>
+    <row r="60" spans="3:38" s="10" customFormat="1">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+    </row>
+    <row r="61" spans="3:38" s="10" customFormat="1">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+    </row>
+    <row r="62" spans="3:38" s="10" customFormat="1">
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+    </row>
+    <row r="63" spans="3:38" s="10" customFormat="1">
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+    </row>
+    <row r="64" spans="3:38" s="10" customFormat="1" ht="16.5" customHeight="1">
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+    </row>
+    <row r="65" spans="4:5" s="10" customFormat="1"/>
+    <row r="66" spans="4:5" s="10" customFormat="1">
+      <c r="D66" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" s="10" customFormat="1"/>
+    <row r="68" spans="4:5" s="10" customFormat="1"/>
+    <row r="69" spans="4:5" s="10" customFormat="1"/>
+    <row r="70" spans="4:5" s="10" customFormat="1"/>
+    <row r="71" spans="4:5" s="10" customFormat="1"/>
+    <row r="72" spans="4:5" s="10" customFormat="1"/>
+    <row r="73" spans="4:5" s="10" customFormat="1"/>
+    <row r="74" spans="4:5" s="10" customFormat="1"/>
+    <row r="75" spans="4:5" s="10" customFormat="1"/>
+    <row r="76" spans="4:5" s="10" customFormat="1"/>
+    <row r="77" spans="4:5" s="10" customFormat="1">
+      <c r="D77" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" s="10" customFormat="1"/>
+    <row r="79" spans="4:5" s="10" customFormat="1">
+      <c r="D79" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30">
+      <c r="C81" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30">
+      <c r="D82" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="3:30">
+      <c r="D83" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30">
+      <c r="D84" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30">
+      <c r="C87" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+    </row>
+    <row r="88" spans="3:30">
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
+    </row>
+    <row r="89" spans="3:30">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10"/>
+      <c r="AA89" s="10"/>
+      <c r="AB89" s="10"/>
+      <c r="AC89" s="10"/>
+      <c r="AD89" s="10"/>
+    </row>
+    <row r="90" spans="3:30">
+      <c r="C90" s="10"/>
+      <c r="D90" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="10"/>
+      <c r="AB90" s="10"/>
+      <c r="AC90" s="10"/>
+      <c r="AD90" s="10"/>
+    </row>
+    <row r="91" spans="3:30">
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="10"/>
+      <c r="AB91" s="10"/>
+      <c r="AC91" s="10"/>
+      <c r="AD91" s="10"/>
+    </row>
+    <row r="92" spans="3:30">
+      <c r="C92" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="10"/>
+      <c r="AB92" s="10"/>
+      <c r="AC92" s="10"/>
+      <c r="AD92" s="10"/>
+    </row>
+    <row r="93" spans="3:30">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10"/>
+      <c r="AB93" s="10"/>
+      <c r="AC93" s="10"/>
+      <c r="AD93" s="10"/>
+    </row>
+    <row r="94" spans="3:30">
+      <c r="C94" s="10"/>
+      <c r="D94" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
+      <c r="AA94" s="10"/>
+      <c r="AB94" s="10"/>
+      <c r="AC94" s="10"/>
+      <c r="AD94" s="10"/>
+    </row>
+    <row r="95" spans="3:30">
+      <c r="C95" s="10"/>
+      <c r="D95" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="10"/>
+      <c r="AB95" s="10"/>
+      <c r="AC95" s="10"/>
+      <c r="AD95" s="10"/>
+    </row>
+    <row r="96" spans="3:30">
+      <c r="C96" s="10"/>
+      <c r="D96" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10"/>
+      <c r="AA96" s="10"/>
+      <c r="AB96" s="10"/>
+      <c r="AC96" s="10"/>
+      <c r="AD96" s="10"/>
+    </row>
+    <row r="97" spans="3:30">
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="10"/>
+      <c r="AD97" s="10"/>
+    </row>
+    <row r="98" spans="3:30">
+      <c r="C98" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+    </row>
+    <row r="99" spans="3:30">
+      <c r="C99" s="10"/>
+      <c r="D99" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="10"/>
+      <c r="AB99" s="10"/>
+      <c r="AC99" s="10"/>
+      <c r="AD99" s="10"/>
+    </row>
+    <row r="100" spans="3:30">
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="10"/>
+      <c r="AB100" s="10"/>
+      <c r="AC100" s="10"/>
+      <c r="AD100" s="10"/>
+    </row>
+    <row r="101" spans="3:30">
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="10"/>
+      <c r="AA101" s="10"/>
+      <c r="AB101" s="10"/>
+      <c r="AC101" s="10"/>
+      <c r="AD101" s="10"/>
+    </row>
+    <row r="102" spans="3:30">
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+      <c r="Z102" s="10"/>
+      <c r="AA102" s="10"/>
+      <c r="AB102" s="10"/>
+      <c r="AC102" s="10"/>
+      <c r="AD102" s="10"/>
+    </row>
+    <row r="103" spans="3:30">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="10"/>
+      <c r="AA103" s="10"/>
+      <c r="AB103" s="10"/>
+      <c r="AC103" s="10"/>
+      <c r="AD103" s="10"/>
+    </row>
+    <row r="104" spans="3:30">
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="10"/>
+      <c r="Z104" s="10"/>
+      <c r="AA104" s="10"/>
+      <c r="AB104" s="10"/>
+      <c r="AC104" s="10"/>
+      <c r="AD104" s="10"/>
+    </row>
+    <row r="105" spans="3:30">
+      <c r="C105" s="10"/>
+      <c r="D105" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="10"/>
+      <c r="Z105" s="10"/>
+      <c r="AA105" s="10"/>
+      <c r="AB105" s="10"/>
+      <c r="AC105" s="10"/>
+      <c r="AD105" s="10"/>
+    </row>
+    <row r="106" spans="3:30">
+      <c r="D106" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="3:30">
+      <c r="C108" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+    </row>
+    <row r="109" spans="3:30">
+      <c r="D109" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D58:AL64"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Y84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P89" sqref="P89"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18"/>
@@ -729,7 +3824,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="18.75" thickBot="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -744,97 +3839,97 @@
     <row r="3" spans="2:11" ht="18.75" thickTop="1"/>
     <row r="4" spans="2:11">
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="3:25">
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:25">
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:25">
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:25">
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="3:25">
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="3:25">
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="3:25">
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="3:25">
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="3:25">
       <c r="D26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:25">
@@ -842,30 +3937,30 @@
     </row>
     <row r="28" spans="3:25">
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="3:25">
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="3:25">
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="3:25">
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="3:25">
       <c r="D32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -891,181 +3986,181 @@
     </row>
     <row r="33" spans="4:18">
       <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="4:18">
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="4:18">
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="4:18">
       <c r="D36" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="4:18">
       <c r="D37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="4:18">
       <c r="D39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="4:18">
       <c r="D40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="4:18">
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="4:18">
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="4:18">
       <c r="D44" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="4:18">
       <c r="D45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="4:18">
       <c r="D46" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="4:18">
       <c r="D47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="4:18">
       <c r="D48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="D49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="D50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="D53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="D54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="D57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="D58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="D59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="3:4">
       <c r="D60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="D61" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="3:4">
       <c r="D62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="D63" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="3:4">
       <c r="D64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="D68" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="D71" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="D72" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="3:4">
@@ -1073,52 +4168,52 @@
     </row>
     <row r="74" spans="3:4">
       <c r="D74" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="D75" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="3:4">
       <c r="D76" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="D77" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="D78" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +4223,421 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FF2795-5DE1-49F4-BA2C-CC02CB873C76}">
+  <dimension ref="B2:Y84"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="4.375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="18.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.75" thickTop="1"/>
+    <row r="4" spans="2:11">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25">
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25">
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25">
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25">
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25">
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25">
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25">
+      <c r="D24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25">
+      <c r="D26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="3:25">
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25">
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25">
+      <c r="D30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25">
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25">
+      <c r="D32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+    </row>
+    <row r="33" spans="4:18">
+      <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18">
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18">
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18">
+      <c r="D36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18">
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18">
+      <c r="D39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18">
+      <c r="D40" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18">
+      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18">
+      <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18">
+      <c r="D44" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18">
+      <c r="D45" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18">
+      <c r="D46" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18">
+      <c r="D47" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18">
+      <c r="D48" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="D49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="D50" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="D54" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="D58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="D59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="D60" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="D63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="D64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="D67" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="D68" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="D71" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="D72" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="D74" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="D75" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="D76" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="D77" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="D78" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="D79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271FC665-9CAD-444F-9935-04039A2AA76D}">
   <dimension ref="B2:K3"/>
   <sheetViews>
